--- a/data/trans_bre/P37-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P37-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P37-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P37-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,66</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -630,32 +630,32 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,8</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>-18,03%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,06%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,41%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-8,41; 3,2</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-4,92; 7,81</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0,2; 13,64</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-47,66; 27,75</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,5; 64,86</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,46; 53,05</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,06</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,56</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,61</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,27%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,16%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,91%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,83; 6,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,49; 4,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,03; 1,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,46; 9,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,31; 72,45</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,67; 29,27</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,26; 13,84</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,0; 37,68</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,84</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,1</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,82</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,42</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,48%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,07%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,06%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,15%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,2; 9,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,41; 4,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,59; 9,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,23; 9,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,2; 82,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,15; 26,07</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,28; 57,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,43; 37,83</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,52</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,19</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,46%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,35%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,82%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,89%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,75; 9,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,44; 7,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,7; 8,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,41; 9,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,76; 100,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,21; 48,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,99; 50,99</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,78; 32,91</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,35</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,53</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,23</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,06%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,06%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,12%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,98; 11,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,39; 10,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,54; 7,42</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,72; 14,78</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,67; 93,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,09; 80,66</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,53; 76,91</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,37; 56,42</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,49</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,12</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,08</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,29%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,66%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,36%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,48%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,37; 10,61</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,6; 9,1</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,63; 10,79</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,46; 15,55</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,4; 100,95</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,12; 50,28</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,17; 66,52</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,51; 65,31</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,77</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,51</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,07%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,59%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,77%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,06%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,87; 6,19</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,76; 3,92</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,66; 7,35</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,94; 33,41</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,48; 46,28</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,77; 26,57</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,73; 53,87</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,6; 108,58</t>
         </is>
       </c>
     </row>
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,93</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,66</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,51%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,14%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,79%</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,09; 3,6</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,58; 4,03</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,41; 5,46</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,27; 12,87</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,77; 28,06</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,84; 29,87</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,32; 53,97</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,89; 42,81</t>
         </is>
       </c>
     </row>
@@ -1420,42 +1420,42 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,97</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,64</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,22%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,84%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,98%</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,26; 3,74</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,34; 2,57</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,33; 3,45</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,73; 12,77</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,67; 28,25</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,15; 15,63</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,99; 23,28</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,85; 42,01</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P37-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P37-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,8</t>
+          <t>7,68</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,61%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>22,41%</t>
+          <t>26,91%</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,55; 5,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,2; 13,64</t>
+          <t>0,76; 14,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,59; 43,53</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,46; 53,05</t>
+          <t>2,49; 61,67</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,61</t>
+          <t>4,36</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>12,91%</t>
+          <t>16,17%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 9,35</t>
+          <t>-1,8; 9,96</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-8,0; 37,68</t>
+          <t>-6,09; 41,78</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,42</t>
+          <t>3,78</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>12,15%</t>
+          <t>13,8%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 9,5</t>
+          <t>-1,59; 9,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,43; 37,83</t>
+          <t>-5,62; 40,04</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,19</t>
+          <t>5,85</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>-3,43</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>18,35%</t>
+          <t>32,88%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,89%</t>
+          <t>-10,61%</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 7,34</t>
+          <t>0,15; 11,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,41; 9,27</t>
+          <t>-16,77; 5,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-7,21; 48,72</t>
+          <t>0,16; 75,45</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-16,78; 32,91</t>
+          <t>-47,17; 18,96</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>7,23</t>
+          <t>7,58</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>23,12%</t>
+          <t>24,21%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,72; 14,78</t>
+          <t>1,12; 15,01</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,37; 56,42</t>
+          <t>3,02; 57,31</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>10,08</t>
+          <t>10,6</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>37,48%</t>
+          <t>40,15%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,46; 15,55</t>
+          <t>3,96; 16,01</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>11,51; 65,31</t>
+          <t>14,08; 69,41</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>12,51</t>
+          <t>20,06</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>38,06%</t>
+          <t>63,46%</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,94; 33,41</t>
+          <t>2,91; 45,81</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>5,6; 108,58</t>
+          <t>8,92; 164,95</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>5,66</t>
+          <t>13,83</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>15,79%</t>
+          <t>48,85%</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,27; 12,87</t>
+          <t>2,05; 32,61</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,89; 42,81</t>
+          <t>5,28; 251,88</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>6,64</t>
+          <t>10,04</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>20,98%</t>
+          <t>34,6%</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>3,73; 12,77</t>
+          <t>4,11; 22,39</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>10,85; 42,01</t>
+          <t>13,85; 90,85</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P37-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P37-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,41; 3,2</t>
+          <t>-8,16; 3,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 5,75</t>
+          <t>-6,95; 6,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 7,81</t>
+          <t>-5,04; 7,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,76; 14,53</t>
+          <t>-0,1; 14,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-47,66; 27,75</t>
+          <t>-46,98; 30,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-32,59; 43,53</t>
+          <t>-35,52; 44,82</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-26,5; 64,86</t>
+          <t>-28,62; 65,43</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,49; 61,67</t>
+          <t>-0,03; 62,75</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 6,06</t>
+          <t>-1,82; 6,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 4,46</t>
+          <t>-5,44; 4,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 1,77</t>
+          <t>-6,94; 2,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 9,96</t>
+          <t>-1,79; 10,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-15,31; 72,45</t>
+          <t>-15,0; 75,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-26,67; 29,27</t>
+          <t>-26,75; 33,7</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-39,26; 13,84</t>
+          <t>-38,78; 17,21</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 41,78</t>
+          <t>-5,69; 44,09</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 9,72</t>
+          <t>-1,43; 9,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,41; 4,49</t>
+          <t>-8,2; 3,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 9,14</t>
+          <t>-3,33; 8,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 9,87</t>
+          <t>-2,12; 9,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-13,2; 82,0</t>
+          <t>-8,37; 76,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-34,15; 26,07</t>
+          <t>-33,95; 23,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-16,28; 57,88</t>
+          <t>-16,36; 55,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 40,04</t>
+          <t>-6,96; 39,51</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 9,42</t>
+          <t>-0,59; 9,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,15; 11,15</t>
+          <t>-0,03; 12,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 8,07</t>
+          <t>-3,67; 8,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-16,77; 5,54</t>
+          <t>-18,38; 5,18</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 100,3</t>
+          <t>-4,31; 95,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,16; 75,45</t>
+          <t>-0,48; 83,36</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-16,99; 50,99</t>
+          <t>-16,36; 51,6</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-47,17; 18,96</t>
+          <t>-50,55; 16,46</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 11,49</t>
+          <t>-3,2; 12,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 10,17</t>
+          <t>-5,6; 10,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 7,42</t>
+          <t>-6,24; 7,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,12; 15,01</t>
+          <t>-0,09; 14,19</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-20,67; 93,53</t>
+          <t>-16,36; 101,86</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-22,09; 80,66</t>
+          <t>-26,12; 84,85</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-37,53; 76,91</t>
+          <t>-36,92; 73,01</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,02; 57,31</t>
+          <t>-0,04; 51,44</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 10,61</t>
+          <t>-1,46; 10,45</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 9,1</t>
+          <t>-5,41; 8,53</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 10,79</t>
+          <t>-3,53; 11,33</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,96; 16,01</t>
+          <t>4,19; 16,84</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-9,4; 100,95</t>
+          <t>-8,21; 104,99</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-22,12; 50,28</t>
+          <t>-21,94; 50,21</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-16,17; 66,52</t>
+          <t>-15,4; 69,49</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>14,08; 69,41</t>
+          <t>14,39; 73,91</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 6,19</t>
+          <t>-2,14; 6,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 3,92</t>
+          <t>-5,14; 3,52</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 7,35</t>
+          <t>-1,44; 7,48</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,91; 45,81</t>
+          <t>2,77; 43,74</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-11,48; 46,28</t>
+          <t>-12,31; 45,23</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-24,77; 26,57</t>
+          <t>-26,89; 23,41</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-8,73; 53,87</t>
+          <t>-7,73; 52,67</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>8,92; 164,95</t>
+          <t>8,43; 152,47</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 3,6</t>
+          <t>-3,62; 3,36</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 4,03</t>
+          <t>-3,27; 4,29</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 5,46</t>
+          <t>-1,25; 5,35</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,05; 32,61</t>
+          <t>2,5; 28,84</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-23,77; 28,06</t>
+          <t>-21,73; 25,2</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-19,84; 29,87</t>
+          <t>-18,89; 31,07</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-10,32; 53,97</t>
+          <t>-9,43; 50,78</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>5,28; 251,88</t>
+          <t>6,24; 212,54</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,26; 3,74</t>
+          <t>0,3; 3,78</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 2,57</t>
+          <t>-1,33; 2,44</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 3,45</t>
+          <t>-0,27; 3,46</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,11; 22,39</t>
+          <t>4,57; 22,68</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,67; 28,25</t>
+          <t>2,02; 29,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 15,63</t>
+          <t>-6,97; 14,79</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 23,28</t>
+          <t>-1,74; 23,56</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>13,85; 90,85</t>
+          <t>14,35; 91,46</t>
         </is>
       </c>
     </row>
